--- a/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00005.xlsx
+++ b/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00005.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="8680" windowWidth="25580" windowHeight="12580" tabRatio="377"/>
+    <workbookView xWindow="10215" yWindow="8685" windowWidth="25575" windowHeight="12585" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -294,6 +294,7 @@
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>I</t>
@@ -323,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -438,6 +439,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,6 +462,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,6 +474,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1074,25 +1078,25 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45">
+    <row r="1" spans="1:13" ht="63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -1181,22 +1185,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1956,7 @@
     <row r="38" spans="1:8">
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:8" ht="15">
+    <row r="39" spans="1:8">
       <c r="A39" s="15" t="s">
         <v>70</v>
       </c>
@@ -1972,7 +1976,7 @@
       </c>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" ht="15">
+    <row r="40" spans="1:8">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
